--- a/public/template/Title 365_sample_template.xlsx
+++ b/public/template/Title 365_sample_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01169EB0-8A5A-4D5C-930C-3F81D392C9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA8DFBA-0E6E-4EA9-A825-45D7EE80E8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,7 +995,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="10" width="16" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1023,22 +1023,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
@@ -1063,23 +1063,23 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -1104,23 +1104,23 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>

--- a/public/template/Title 365_sample_template.xlsx
+++ b/public/template/Title 365_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01169EB0-8A5A-4D5C-930C-3F81D392C9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986A4F7C-9D2C-431F-BB0A-77EDDAA6BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="2304" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="10" width="16" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1023,22 +1023,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
@@ -1063,23 +1063,23 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -1104,23 +1104,23 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>

--- a/public/template/Title 365_sample_template.xlsx
+++ b/public/template/Title 365_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986A4F7C-9D2C-431F-BB0A-77EDDAA6BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01169EB0-8A5A-4D5C-930C-3F81D392C9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="2304" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="8" max="10" width="16" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1023,22 +1023,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
@@ -1063,23 +1063,23 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -1104,23 +1104,23 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
